--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>236.7529772741244</v>
+        <v>262.653725470925</v>
       </c>
       <c r="R2">
-        <v>236.7529772741244</v>
+        <v>1575.92235282555</v>
       </c>
       <c r="S2">
-        <v>0.02396629107964061</v>
+        <v>0.02304076046993376</v>
       </c>
       <c r="T2">
-        <v>0.02396629107964061</v>
+        <v>0.01726618720745776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>1337.472001421915</v>
+        <v>1549.93862658503</v>
       </c>
       <c r="R3">
-        <v>1337.472001421915</v>
+        <v>13949.44763926527</v>
       </c>
       <c r="S3">
-        <v>0.135391088492345</v>
+        <v>0.1359651936183824</v>
       </c>
       <c r="T3">
-        <v>0.135391088492345</v>
+        <v>0.1528335288527033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>2698.106223962725</v>
+        <v>3219.405258572791</v>
       </c>
       <c r="R4">
-        <v>2698.106223962725</v>
+        <v>28974.64732715512</v>
       </c>
       <c r="S4">
-        <v>0.2731268678087623</v>
+        <v>0.2824157368620004</v>
       </c>
       <c r="T4">
-        <v>0.2731268678087623</v>
+        <v>0.3174532578484884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>1846.82961710477</v>
+        <v>2027.772659924096</v>
       </c>
       <c r="R5">
-        <v>1846.82961710477</v>
+        <v>18249.95393931687</v>
       </c>
       <c r="S5">
-        <v>0.1869529020823497</v>
+        <v>0.1778822061671594</v>
       </c>
       <c r="T5">
-        <v>0.1869529020823497</v>
+        <v>0.1999509180631615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>207.2649582699149</v>
+        <v>243.2280491629789</v>
       </c>
       <c r="R6">
-        <v>207.2649582699149</v>
+        <v>2189.05244246681</v>
       </c>
       <c r="S6">
-        <v>0.02098124542169907</v>
+        <v>0.02133668277609804</v>
       </c>
       <c r="T6">
-        <v>0.02098124542169907</v>
+        <v>0.02398378905585494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>993.6169915323678</v>
+        <v>1185.554371933045</v>
       </c>
       <c r="R7">
-        <v>993.6169915323678</v>
+        <v>7113.326231598269</v>
       </c>
       <c r="S7">
-        <v>0.1005829549217</v>
+        <v>0.1040003306970639</v>
       </c>
       <c r="T7">
-        <v>0.1005829549217</v>
+        <v>0.07793532604083291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>10.65116186479036</v>
+        <v>2.28807030721</v>
       </c>
       <c r="R8">
-        <v>10.65116186479036</v>
+        <v>13.72842184326</v>
       </c>
       <c r="S8">
-        <v>0.001078207541577694</v>
+        <v>0.0002007162845007093</v>
       </c>
       <c r="T8">
-        <v>0.001078207541577694</v>
+        <v>0.0001504119166681551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>60.17086222436659</v>
+        <v>13.502068333996</v>
       </c>
       <c r="R9">
-        <v>60.17086222436659</v>
+        <v>121.518615005964</v>
       </c>
       <c r="S9">
-        <v>0.006091042297273492</v>
+        <v>0.001184441308702157</v>
       </c>
       <c r="T9">
-        <v>0.006091042297273492</v>
+        <v>0.001331387394894208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>121.3837580870252</v>
+        <v>28.04538776599823</v>
       </c>
       <c r="R10">
-        <v>121.3837580870252</v>
+        <v>252.408489893984</v>
       </c>
       <c r="S10">
-        <v>0.01228756872309996</v>
+        <v>0.002460224238754637</v>
       </c>
       <c r="T10">
-        <v>0.01228756872309996</v>
+        <v>0.002765448584092564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>83.0860984936877</v>
+        <v>17.66465107100933</v>
       </c>
       <c r="R11">
-        <v>83.0860984936877</v>
+        <v>158.981859639084</v>
       </c>
       <c r="S11">
-        <v>0.008410731067030351</v>
+        <v>0.001549595359374179</v>
       </c>
       <c r="T11">
-        <v>0.008410731067030351</v>
+        <v>0.001741843781958248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>9.32454005372781</v>
+        <v>2.118846310565778</v>
       </c>
       <c r="R12">
-        <v>9.32454005372781</v>
+        <v>19.069616795092</v>
       </c>
       <c r="S12">
-        <v>0.0009439148081025327</v>
+        <v>0.0001858714557610689</v>
       </c>
       <c r="T12">
-        <v>0.0009439148081025327</v>
+        <v>0.000208931342948587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>44.70134031794478</v>
+        <v>10.327787093594</v>
       </c>
       <c r="R13">
-        <v>44.70134031794478</v>
+        <v>61.966722561564</v>
       </c>
       <c r="S13">
-        <v>0.004525076499754025</v>
+        <v>0.0009059839839748027</v>
       </c>
       <c r="T13">
-        <v>0.004525076499754025</v>
+        <v>0.0006789224294345666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>13.67372769976823</v>
+        <v>10.901769446435</v>
       </c>
       <c r="R14">
-        <v>13.67372769976823</v>
+        <v>65.41061667861</v>
       </c>
       <c r="S14">
-        <v>0.001384179164162962</v>
+        <v>0.0009563354110564736</v>
       </c>
       <c r="T14">
-        <v>0.001384179164162962</v>
+        <v>0.0007166545679761415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>77.24603155605631</v>
+        <v>64.332129814106</v>
       </c>
       <c r="R15">
-        <v>77.24603155605631</v>
+        <v>578.989168326954</v>
       </c>
       <c r="S15">
-        <v>0.007819546340386762</v>
+        <v>0.005643404413586293</v>
       </c>
       <c r="T15">
-        <v>0.007819546340386762</v>
+        <v>0.006343545640747753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>155.8298030136256</v>
+        <v>133.6254181077138</v>
       </c>
       <c r="R16">
-        <v>155.8298030136256</v>
+        <v>1202.628762969424</v>
       </c>
       <c r="S16">
-        <v>0.01577451088855128</v>
+        <v>0.01172201630033761</v>
       </c>
       <c r="T16">
-        <v>0.01577451088855128</v>
+        <v>0.01317629217281749</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H17">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I17">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J17">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>106.6641086541379</v>
+        <v>84.16522548325266</v>
       </c>
       <c r="R17">
-        <v>106.6641086541379</v>
+        <v>757.4870293492739</v>
       </c>
       <c r="S17">
-        <v>0.01079751184203957</v>
+        <v>0.007383222136981479</v>
       </c>
       <c r="T17">
-        <v>0.01079751184203957</v>
+        <v>0.008299211463379383</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H18">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I18">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J18">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>11.97063975168177</v>
+        <v>10.09548259834022</v>
       </c>
       <c r="R18">
-        <v>11.97063975168177</v>
+        <v>90.85934338506199</v>
       </c>
       <c r="S18">
-        <v>0.001211777102030461</v>
+        <v>0.0008856055476071689</v>
       </c>
       <c r="T18">
-        <v>0.001211777102030461</v>
+        <v>0.0009954769850306388</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H19">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I19">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J19">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>57.38659904726541</v>
+        <v>49.20790826725899</v>
       </c>
       <c r="R19">
-        <v>57.38659904726541</v>
+        <v>295.247449603554</v>
       </c>
       <c r="S19">
-        <v>0.005809193838542303</v>
+        <v>0.00431666303449366</v>
       </c>
       <c r="T19">
-        <v>0.005809193838542303</v>
+        <v>0.003234802608287976</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H20">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I20">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J20">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>58.42624382987323</v>
+        <v>16.85396466155</v>
       </c>
       <c r="R20">
-        <v>58.42624382987323</v>
+        <v>101.1237879693</v>
       </c>
       <c r="S20">
-        <v>0.005914436145381635</v>
+        <v>0.001478479553409147</v>
       </c>
       <c r="T20">
-        <v>0.005914436145381635</v>
+        <v>0.00110793672738677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H21">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I21">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J21">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>330.0632844005461</v>
+        <v>99.45646418378001</v>
       </c>
       <c r="R21">
-        <v>330.0632844005461</v>
+        <v>895.10817765402</v>
       </c>
       <c r="S21">
-        <v>0.03341200959634245</v>
+        <v>0.008724614754031692</v>
       </c>
       <c r="T21">
-        <v>0.03341200959634245</v>
+        <v>0.009807022115391941</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H22">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I22">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J22">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>665.8425753929212</v>
+        <v>206.5828016027911</v>
       </c>
       <c r="R22">
-        <v>665.8425753929212</v>
+        <v>1859.24521442512</v>
       </c>
       <c r="S22">
-        <v>0.06740264540203687</v>
+        <v>0.01812205343900465</v>
       </c>
       <c r="T22">
-        <v>0.06740264540203687</v>
+        <v>0.02037034113976279</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H23">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I23">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J23">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>455.7632971021052</v>
+        <v>130.1181191728467</v>
       </c>
       <c r="R23">
-        <v>455.7632971021052</v>
+        <v>1171.06307255562</v>
       </c>
       <c r="S23">
-        <v>0.0461365088943259</v>
+        <v>0.01141434567998057</v>
       </c>
       <c r="T23">
-        <v>0.0461365088943259</v>
+        <v>0.01283045081899685</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H24">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I24">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J24">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>51.14914764195478</v>
+        <v>15.60745783422889</v>
       </c>
       <c r="R24">
-        <v>51.14914764195478</v>
+        <v>140.46712050806</v>
       </c>
       <c r="S24">
-        <v>0.005177782239431967</v>
+        <v>0.001369132293320037</v>
       </c>
       <c r="T24">
-        <v>0.005177782239431967</v>
+        <v>0.001538991813166553</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>88.3431645</v>
+      </c>
+      <c r="N25">
+        <v>176.686329</v>
+      </c>
+      <c r="O25">
+        <v>0.139665077781682</v>
+      </c>
+      <c r="P25">
+        <v>0.09872441687536272</v>
+      </c>
+      <c r="Q25">
+        <v>76.07465476867</v>
+      </c>
+      <c r="R25">
+        <v>456.44792861202</v>
+      </c>
+      <c r="S25">
+        <v>0.006673493380743467</v>
+      </c>
+      <c r="T25">
+        <v>0.005000954121718628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.5719925</v>
+      </c>
+      <c r="N26">
+        <v>39.143985</v>
+      </c>
+      <c r="O26">
+        <v>0.03094210933382397</v>
+      </c>
+      <c r="P26">
+        <v>0.02187190777676379</v>
+      </c>
+      <c r="Q26">
+        <v>60.02781965530125</v>
+      </c>
+      <c r="R26">
+        <v>240.111278621205</v>
+      </c>
+      <c r="S26">
+        <v>0.005265817614923881</v>
+      </c>
+      <c r="T26">
+        <v>0.002630717357274965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>115.495743</v>
+      </c>
+      <c r="N27">
+        <v>346.487229</v>
+      </c>
+      <c r="O27">
+        <v>0.1825916246134488</v>
+      </c>
+      <c r="P27">
+        <v>0.1936015640337701</v>
+      </c>
+      <c r="Q27">
+        <v>354.2285044181895</v>
+      </c>
+      <c r="R27">
+        <v>2125.371026509137</v>
+      </c>
+      <c r="S27">
+        <v>0.03107397051874619</v>
+      </c>
+      <c r="T27">
+        <v>0.02328608003003286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>239.8982746666667</v>
+      </c>
+      <c r="N28">
+        <v>719.694824</v>
+      </c>
+      <c r="O28">
+        <v>0.3792643310961689</v>
+      </c>
+      <c r="P28">
+        <v>0.4021332732970914</v>
+      </c>
+      <c r="Q28">
+        <v>735.7743657069453</v>
+      </c>
+      <c r="R28">
+        <v>4414.646194241672</v>
+      </c>
+      <c r="S28">
+        <v>0.06454430025607157</v>
+      </c>
+      <c r="T28">
+        <v>0.04836793355193016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>151.102183</v>
+      </c>
+      <c r="N29">
+        <v>453.306549</v>
+      </c>
+      <c r="O29">
+        <v>0.2388832034840335</v>
+      </c>
+      <c r="P29">
+        <v>0.2532874216646837</v>
+      </c>
+      <c r="Q29">
+        <v>463.4343994688494</v>
+      </c>
+      <c r="R29">
+        <v>2780.606396813097</v>
+      </c>
+      <c r="S29">
+        <v>0.0406538341405379</v>
+      </c>
+      <c r="T29">
+        <v>0.03046499753718775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.4811008009132</v>
-      </c>
-      <c r="N25">
-        <v>80.4811008009132</v>
-      </c>
-      <c r="O25">
-        <v>0.1357392330634297</v>
-      </c>
-      <c r="P25">
-        <v>0.1357392330634297</v>
-      </c>
-      <c r="Q25">
-        <v>245.206245299117</v>
-      </c>
-      <c r="R25">
-        <v>245.206245299117</v>
-      </c>
-      <c r="S25">
-        <v>0.02482200780343335</v>
-      </c>
-      <c r="T25">
-        <v>0.02482200780343335</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>18.12446233333333</v>
+      </c>
+      <c r="N30">
+        <v>54.373387</v>
+      </c>
+      <c r="O30">
+        <v>0.02865365369084289</v>
+      </c>
+      <c r="P30">
+        <v>0.03038141635232813</v>
+      </c>
+      <c r="Q30">
+        <v>55.58820627458517</v>
+      </c>
+      <c r="R30">
+        <v>333.529237647511</v>
+      </c>
+      <c r="S30">
+        <v>0.00487636161805657</v>
+      </c>
+      <c r="T30">
+        <v>0.003654227155327413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>88.3431645</v>
+      </c>
+      <c r="N31">
+        <v>176.686329</v>
+      </c>
+      <c r="O31">
+        <v>0.139665077781682</v>
+      </c>
+      <c r="P31">
+        <v>0.09872441687536272</v>
+      </c>
+      <c r="Q31">
+        <v>270.9508266153592</v>
+      </c>
+      <c r="R31">
+        <v>1083.803306461437</v>
+      </c>
+      <c r="S31">
+        <v>0.0237686066854061</v>
+      </c>
+      <c r="T31">
+        <v>0.01187441167508865</v>
       </c>
     </row>
   </sheetData>
